--- a/excel_parser/questions.xlsx
+++ b/excel_parser/questions.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$33</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>Вопрос, который бот задаст представителю компании</t>
   </si>
@@ -38,7 +41,172 @@
 Продукт (фокусный продукт, на развитие которого привлекаются инвестиции) (1-2 предложения)</t>
   </si>
   <si>
+    <t>image</t>
+  </si>
+  <si>
     <t>feature</t>
+  </si>
+  <si>
+    <t>Введите название вашего стартапа</t>
+  </si>
+  <si>
+    <t>name_project</t>
+  </si>
+  <si>
+    <t>about_project</t>
+  </si>
+  <si>
+    <t>Краткое описание Вашего стартапа (2 - 3 предложения)</t>
+  </si>
+  <si>
+    <t>еffectiveness</t>
+  </si>
+  <si>
+    <t>Опишите основной эффект от использования Вашей идеи</t>
+  </si>
+  <si>
+    <t>Выделите 2-3 основные цели Вашего стартапа</t>
+  </si>
+  <si>
+    <t>goals</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>Возможные негативные эффекты от Вашего стартапа</t>
+  </si>
+  <si>
+    <t>teammate1</t>
+  </si>
+  <si>
+    <t>teammate2</t>
+  </si>
+  <si>
+    <t>teammate3</t>
+  </si>
+  <si>
+    <t>teammate4</t>
+  </si>
+  <si>
+    <t>Сколько примерно человек в штате? (в следующих вопросах Вам будет необходимо их представить)</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Фамилия И.О., Должность, Опыт</t>
+  </si>
+  <si>
+    <t>Фамилия И.О., Должность, Опыт  (чтобы пропустить вопрос напишите "-")</t>
+  </si>
+  <si>
+    <t>first_stage</t>
+  </si>
+  <si>
+    <t>Опишите (пару слов) о данном этапе</t>
+  </si>
+  <si>
+    <t>Опишите конечный результат Вашего стартапа</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>Напишите актуальность Вашего сартапа</t>
+  </si>
+  <si>
+    <t>Инструменты для реализации Вашего решения (пару слов)</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>final_stage_discription</t>
+  </si>
+  <si>
+    <t>final_stage</t>
+  </si>
+  <si>
+    <t>third_stage_discription</t>
+  </si>
+  <si>
+    <t>third_stage</t>
+  </si>
+  <si>
+    <t>second_stage_discription</t>
+  </si>
+  <si>
+    <t>second_stage</t>
+  </si>
+  <si>
+    <t>first_stage_description</t>
+  </si>
+  <si>
+    <t>Что даёт возможность реализовать Ваш стартап?</t>
+  </si>
+  <si>
+    <t>forecast</t>
+  </si>
+  <si>
+    <t>Каков прогноз Вашего стартапа? (фотография где сравниваются Ваша стратегия с текущим положением рынка)</t>
+  </si>
+  <si>
+    <t>Фотография сотрудника</t>
+  </si>
+  <si>
+    <t>teammate1_photo</t>
+  </si>
+  <si>
+    <t>teammate2_photo</t>
+  </si>
+  <si>
+    <t>teammate3_photo</t>
+  </si>
+  <si>
+    <t>teammate4_photo</t>
+  </si>
+  <si>
+    <t>picture1</t>
+  </si>
+  <si>
+    <t>picture2</t>
+  </si>
+  <si>
+    <t>Напишите описание к первой фотографии</t>
+  </si>
+  <si>
+    <t>Напишите описание к второй фотографии</t>
+  </si>
+  <si>
+    <t>descript_picture1</t>
+  </si>
+  <si>
+    <t>descript_picture2</t>
+  </si>
+  <si>
+    <t>Загрузите первую фотографию Вашего решения (Всего фотографий 2)</t>
+  </si>
+  <si>
+    <t>Загрузите вторую фотографию Вашего решения</t>
+  </si>
+  <si>
+    <t>Напишите примерную дату первого этапа Вашего стартапа (Всего этапов будет 4)</t>
+  </si>
+  <si>
+    <t>Напишите примерную дату второго этапа Вашего стартапа</t>
+  </si>
+  <si>
+    <t>Напишите примерную дату третьего этапа Вашего стартапа</t>
+  </si>
+  <si>
+    <t>Напишите примерную дату заключающего этапа Вашего стартапа</t>
+  </si>
+  <si>
+    <t>Фотография сотрудника (чтобы пропустить вопрос напишите "-")</t>
   </si>
 </sst>
 </file>
@@ -541,20 +709,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="100.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -565,29 +733,360 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C33"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_parser/questions.xlsx
+++ b/excel_parser/questions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Вопрос, который бот задаст представителю компании</t>
   </si>
@@ -51,162 +51,6 @@
   </si>
   <si>
     <t>name_project</t>
-  </si>
-  <si>
-    <t>about_project</t>
-  </si>
-  <si>
-    <t>Краткое описание Вашего стартапа (2 - 3 предложения)</t>
-  </si>
-  <si>
-    <t>еffectiveness</t>
-  </si>
-  <si>
-    <t>Опишите основной эффект от использования Вашей идеи</t>
-  </si>
-  <si>
-    <t>Выделите 2-3 основные цели Вашего стартапа</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>Возможные негативные эффекты от Вашего стартапа</t>
-  </si>
-  <si>
-    <t>teammate1</t>
-  </si>
-  <si>
-    <t>teammate2</t>
-  </si>
-  <si>
-    <t>teammate3</t>
-  </si>
-  <si>
-    <t>teammate4</t>
-  </si>
-  <si>
-    <t>Сколько примерно человек в штате? (в следующих вопросах Вам будет необходимо их представить)</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>Фамилия И.О., Должность, Опыт</t>
-  </si>
-  <si>
-    <t>Фамилия И.О., Должность, Опыт  (чтобы пропустить вопрос напишите "-")</t>
-  </si>
-  <si>
-    <t>first_stage</t>
-  </si>
-  <si>
-    <t>Опишите (пару слов) о данном этапе</t>
-  </si>
-  <si>
-    <t>Опишите конечный результат Вашего стартапа</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>Напишите актуальность Вашего сартапа</t>
-  </si>
-  <si>
-    <t>Инструменты для реализации Вашего решения (пару слов)</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>decision</t>
-  </si>
-  <si>
-    <t>final_stage_discription</t>
-  </si>
-  <si>
-    <t>final_stage</t>
-  </si>
-  <si>
-    <t>third_stage_discription</t>
-  </si>
-  <si>
-    <t>third_stage</t>
-  </si>
-  <si>
-    <t>second_stage_discription</t>
-  </si>
-  <si>
-    <t>second_stage</t>
-  </si>
-  <si>
-    <t>first_stage_description</t>
-  </si>
-  <si>
-    <t>Что даёт возможность реализовать Ваш стартап?</t>
-  </si>
-  <si>
-    <t>forecast</t>
-  </si>
-  <si>
-    <t>Каков прогноз Вашего стартапа? (фотография где сравниваются Ваша стратегия с текущим положением рынка)</t>
-  </si>
-  <si>
-    <t>Фотография сотрудника</t>
-  </si>
-  <si>
-    <t>teammate1_photo</t>
-  </si>
-  <si>
-    <t>teammate2_photo</t>
-  </si>
-  <si>
-    <t>teammate3_photo</t>
-  </si>
-  <si>
-    <t>teammate4_photo</t>
-  </si>
-  <si>
-    <t>picture1</t>
-  </si>
-  <si>
-    <t>picture2</t>
-  </si>
-  <si>
-    <t>Напишите описание к первой фотографии</t>
-  </si>
-  <si>
-    <t>Напишите описание к второй фотографии</t>
-  </si>
-  <si>
-    <t>descript_picture1</t>
-  </si>
-  <si>
-    <t>descript_picture2</t>
-  </si>
-  <si>
-    <t>Загрузите первую фотографию Вашего решения (Всего фотографий 2)</t>
-  </si>
-  <si>
-    <t>Загрузите вторую фотографию Вашего решения</t>
-  </si>
-  <si>
-    <t>Напишите примерную дату первого этапа Вашего стартапа (Всего этапов будет 4)</t>
-  </si>
-  <si>
-    <t>Напишите примерную дату второго этапа Вашего стартапа</t>
-  </si>
-  <si>
-    <t>Напишите примерную дату третьего этапа Вашего стартапа</t>
-  </si>
-  <si>
-    <t>Напишите примерную дату заключающего этапа Вашего стартапа</t>
-  </si>
-  <si>
-    <t>Фотография сотрудника (чтобы пропустить вопрос напишите "-")</t>
   </si>
 </sst>
 </file>
@@ -223,7 +67,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -240,7 +84,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +231,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -395,21 +248,67 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -711,30 +610,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="100.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="100.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -744,349 +643,126 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="3:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C33"/>
+  <conditionalFormatting sqref="C2:C83">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"image"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"text"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel_parser/questions.xlsx
+++ b/excel_parser/questions.xlsx
@@ -107,9 +107,6 @@
     <t>В каких акселераторах, других программах учавствовала компания? Есть ли награды ?</t>
   </si>
   <si>
-    <t>{{comp_ accel}}</t>
-  </si>
-  <si>
     <t>Какие инвестиции и гранты получала компания?</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>За долю компании (в процентах)</t>
   </si>
   <si>
-    <t>{{company share}}</t>
-  </si>
-  <si>
     <t>Есть ли у Вас пилотные проекты?</t>
   </si>
   <si>
@@ -345,6 +339,12 @@
   </si>
   <si>
     <t>{{messenger}}</t>
+  </si>
+  <si>
+    <t>{{company_share}}</t>
+  </si>
+  <si>
+    <t>{{comp_accel}}</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -813,10 +815,7 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="str">
-        <f t="shared" ref="D2:D9" si="0">CONCATENATE("{{",B2,"}}")</f>
-        <v>{{{{comp_name}}}}</v>
-      </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -828,10 +827,7 @@
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{{{{work_with}}}}</v>
-      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
       <c r="A4" s="4" t="s">
@@ -843,10 +839,7 @@
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{{{{name_project}}}}</v>
-      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -858,10 +851,7 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{{{{product_name}}}}</v>
-      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -873,10 +863,7 @@
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{{{{feature}}}}</v>
-      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -888,10 +875,7 @@
       <c r="C7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{{{{product_discription}}}}</v>
-      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -903,10 +887,7 @@
       <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{{{{Competitors}}}}</v>
-      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -918,10 +899,7 @@
       <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>{{{{about_project}}}}</v>
-      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" customHeight="1">
       <c r="A10" s="12" t="s">
@@ -933,10 +911,7 @@
       <c r="C10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" ref="D10:D48" si="1">CONCATENATE("{{",B17,"}}")</f>
-        <v>{{{{business_model}}}}</v>
-      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
       <c r="A11" s="13" t="s">
@@ -948,10 +923,7 @@
       <c r="C11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{еffectiveness}}}}</v>
-      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
       <c r="A12" s="12" t="s">
@@ -963,557 +935,446 @@
       <c r="C12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{goals}}}}</v>
-      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{risks}}}}</v>
-      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
       <c r="A14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{team}}}}</v>
-      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate1}}}}</v>
-      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate1_photo}}}}</v>
-      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate2}}}}</v>
-      </c>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate2_photo}}}}</v>
-      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate3}}}}</v>
-      </c>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate3_photo}}}}</v>
-      </c>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate4}}}}</v>
-      </c>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{teammate4_photo}}}}</v>
-      </c>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{first_stage}}}}</v>
-      </c>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{first_stage_discription}}}}</v>
-      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{second_stage}}}}</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{second_stage_discription}}}}</v>
-      </c>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="29.25" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{third_stage}}}}</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4" ht="29.25" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{third_stage_discription}}}}</v>
-      </c>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{final_stage}}}}</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{final_stage_discription}}}}</v>
-      </c>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{problems}}}}</v>
-      </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{increase_in_sales}}}}</v>
-      </c>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{decision}}}}</v>
-      </c>
+      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{strategy}}}}</v>
-      </c>
+      <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{forecast}}}}</v>
-      </c>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{picture1}}}}</v>
-      </c>
+      <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{picture2}}}}</v>
-      </c>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{descript_picture1}}}}</v>
-      </c>
+      <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{descript_picture2}}}}</v>
-      </c>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{money_goals}}}}</v>
-      </c>
+      <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{development_plans}}}}</v>
-      </c>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{cash}}}}</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{company share}}}}</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="C44" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{comp_pilot}}}}</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{pilot_result}}}}</v>
-      </c>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{mail}}}}</v>
-      </c>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{telephone}}}}</v>
-      </c>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>{{{{messenger}}}}</v>
-      </c>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="10" t="s">
         <v>93</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>94</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
@@ -1521,10 +1382,10 @@
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -1532,10 +1393,10 @@
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
@@ -1543,10 +1404,10 @@
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
@@ -1554,10 +1415,10 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -1565,10 +1426,10 @@
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>5</v>
@@ -1576,10 +1437,10 @@
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>5</v>

--- a/excel_parser/questions.xlsx
+++ b/excel_parser/questions.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
   <si>
     <t>Вопрос, который бот задаст представителю компании</t>
   </si>
@@ -782,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1105,7 +1107,7 @@
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="29.25" customHeight="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
@@ -1117,7 +1119,7 @@
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="29.25" customHeight="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -6065,4 +6067,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel_parser/questions.xlsx
+++ b/excel_parser/questions.xlsx
@@ -6160,7 +6160,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/excel_parser/questions.xlsx
+++ b/excel_parser/questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="109">
   <si>
     <t>Вопрос, который бот задаст представителю компании</t>
   </si>
@@ -136,9 +136,6 @@
     <t>Опишите основной эффект от использования Вашей идеи</t>
   </si>
   <si>
-    <t>{{еffectiveness}}</t>
-  </si>
-  <si>
     <t>Выделите 2-3 основные цели Вашего стартапа</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>Сколько примерно человек в штате? (в следующих вопросах Вам будет необходимо их представить)</t>
   </si>
   <si>
-    <t>{{team}}</t>
-  </si>
-  <si>
     <t>Фамилия И.О., Должность, Опыт</t>
   </si>
   <si>
@@ -205,27 +199,18 @@
     <t>Опишите (пару слов) реализацию данного этапа</t>
   </si>
   <si>
-    <t>{{first_stage_discription}}</t>
-  </si>
-  <si>
     <t>Напишите примерную дату второго этапа Вашего стартапа</t>
   </si>
   <si>
     <t>{{second_stage}}</t>
   </si>
   <si>
-    <t>{{second_stage_discription}}</t>
-  </si>
-  <si>
     <t>Напишите примерную дату третьего этапа Вашего стартапа</t>
   </si>
   <si>
     <t>{{third_stage}}</t>
   </si>
   <si>
-    <t>{{third_stage_discription}}</t>
-  </si>
-  <si>
     <t>Напишите примерную дату заключающего этапа Вашего стартапа</t>
   </si>
   <si>
@@ -235,9 +220,6 @@
     <t>Опишите конечный результат Вашего стартапа</t>
   </si>
   <si>
-    <t>{{final_stage_discription}}</t>
-  </si>
-  <si>
     <t>Опишите актуальность Вашего сартапа</t>
   </si>
   <si>
@@ -347,6 +329,30 @@
   </si>
   <si>
     <t>{{comp_accel}}</t>
+  </si>
+  <si>
+    <t>{{effectiveness}}</t>
+  </si>
+  <si>
+    <t>{{first_stage_description}}</t>
+  </si>
+  <si>
+    <t>{{second_stage_description}}</t>
+  </si>
+  <si>
+    <t>{{third_stage_description}}</t>
+  </si>
+  <si>
+    <t>{{final_stage_description}}</t>
+  </si>
+  <si>
+    <t>{{teams}}</t>
+  </si>
+  <si>
+    <t>Подведите итоги вашего проекта</t>
+  </si>
+  <si>
+    <t>{{conclusion}}</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -944,7 +953,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>5</v>
@@ -1003,8 +1012,8 @@
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>36</v>
+      <c r="B18" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>5</v>
@@ -1013,10 +1022,10 @@
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
       <c r="A19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -1025,10 +1034,10 @@
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>5</v>
@@ -1037,10 +1046,10 @@
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>5</v>
@@ -1049,10 +1058,10 @@
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
@@ -1061,22 +1070,22 @@
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
@@ -1085,22 +1094,22 @@
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
@@ -1109,22 +1118,22 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
@@ -1133,22 +1142,22 @@
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
@@ -1157,10 +1166,10 @@
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
@@ -1169,10 +1178,10 @@
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -1181,10 +1190,10 @@
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>5</v>
@@ -1193,10 +1202,10 @@
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>5</v>
@@ -1205,10 +1214,10 @@
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>5</v>
@@ -1217,10 +1226,10 @@
     </row>
     <row r="36" spans="1:4" ht="14.25" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>5</v>
@@ -1229,10 +1238,10 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>5</v>
@@ -1241,10 +1250,10 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>5</v>
@@ -1253,10 +1262,10 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>5</v>
@@ -1265,10 +1274,10 @@
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>5</v>
@@ -1277,10 +1286,10 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>5</v>
@@ -1289,46 +1298,46 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:4" ht="14.25" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:4" ht="14.25" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>5</v>
@@ -1337,10 +1346,10 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>5</v>
@@ -1349,10 +1358,10 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
@@ -1361,10 +1370,10 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>5</v>
@@ -1373,10 +1382,10 @@
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
@@ -1384,10 +1393,10 @@
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -1395,10 +1404,10 @@
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
@@ -1406,10 +1415,10 @@
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>5</v>
@@ -1417,10 +1426,10 @@
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -1428,10 +1437,10 @@
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>5</v>
@@ -1439,16 +1448,26 @@
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="5"/>
@@ -6159,7 +6178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6194,13 +6213,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
